--- a/data/trans_orig/P05A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B970AAB9-BA6E-4D7D-B85D-5562802C93FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{272346D0-08F7-4327-8EF4-438B66D54D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11590A76-49EA-401F-BF44-887F62B99318}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41E5F971-9A9A-4DAA-A93C-B4EA0F98CA6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="588">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -77,28 +77,28 @@
     <t>77,89%</t>
   </si>
   <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>80,33%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,1726 +107,1702 @@
     <t>21,17%</t>
   </si>
   <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2015 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
   </si>
 </sst>
 </file>
@@ -2238,7 +2214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1457C097-51DB-41C4-98E1-67D4304C04E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC244E57-35F7-4762-B79C-BFCC5EF12548}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2485,7 +2461,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -2494,13 +2470,13 @@
         <v>2735</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2491,13 @@
         <v>115358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -2530,13 +2506,13 @@
         <v>112755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -2545,18 +2521,18 @@
         <v>228113</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2568,13 +2544,13 @@
         <v>464053</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -2583,13 +2559,13 @@
         <v>444624</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>900</v>
@@ -2598,13 +2574,13 @@
         <v>908677</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2595,13 @@
         <v>99937</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>109</v>
@@ -2634,13 +2610,13 @@
         <v>108260</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>209</v>
@@ -2649,13 +2625,13 @@
         <v>208197</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2646,13 @@
         <v>14663</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2685,13 +2661,13 @@
         <v>21772</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2700,13 +2676,13 @@
         <v>36435</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2697,13 @@
         <v>578654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>567</v>
@@ -2736,13 +2712,13 @@
         <v>574656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>1145</v>
@@ -2751,18 +2727,18 @@
         <v>1153310</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2774,13 +2750,13 @@
         <v>774927</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>689</v>
@@ -2789,13 +2765,13 @@
         <v>730554</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>1407</v>
@@ -2804,13 +2780,13 @@
         <v>1505481</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2801,13 @@
         <v>160393</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -2840,13 +2816,13 @@
         <v>187998</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -2855,13 +2831,13 @@
         <v>348391</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2852,13 @@
         <v>22831</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -2891,13 +2867,13 @@
         <v>47781</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -2906,13 +2882,13 @@
         <v>70612</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2903,13 @@
         <v>958151</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>906</v>
@@ -2942,13 +2918,13 @@
         <v>966333</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>1799</v>
@@ -2957,18 +2933,18 @@
         <v>1924484</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2980,13 +2956,13 @@
         <v>519648</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>539</v>
@@ -2995,13 +2971,13 @@
         <v>527007</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>1030</v>
@@ -3010,13 +2986,13 @@
         <v>1046655</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3007,13 @@
         <v>137725</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -3046,13 +3022,13 @@
         <v>126168</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>257</v>
@@ -3061,13 +3037,13 @@
         <v>263893</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3058,13 @@
         <v>18423</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -3097,13 +3073,13 @@
         <v>29689</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -3112,13 +3088,13 @@
         <v>48112</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3109,13 @@
         <v>675796</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>695</v>
@@ -3148,13 +3124,13 @@
         <v>682865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>1333</v>
@@ -3163,18 +3139,18 @@
         <v>1358660</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3186,13 +3162,13 @@
         <v>711227</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>681</v>
@@ -3201,13 +3177,13 @@
         <v>711188</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>1433</v>
@@ -3216,13 +3192,13 @@
         <v>1422416</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3213,13 @@
         <v>190732</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>229</v>
@@ -3252,13 +3228,13 @@
         <v>236831</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>428</v>
@@ -3267,13 +3243,13 @@
         <v>427564</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3264,13 @@
         <v>37672</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -3303,13 +3279,13 @@
         <v>88667</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>125</v>
@@ -3318,13 +3294,13 @@
         <v>126339</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3315,13 @@
         <v>939631</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>995</v>
@@ -3354,13 +3330,13 @@
         <v>1036686</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>1986</v>
@@ -3369,13 +3345,13 @@
         <v>1976318</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3368,13 @@
         <v>2559705</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>2450</v>
@@ -3407,13 +3383,13 @@
         <v>2506759</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>4956</v>
@@ -3422,13 +3398,13 @@
         <v>5066464</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3419,13 @@
         <v>613206</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>658</v>
@@ -3458,13 +3434,13 @@
         <v>676981</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>1263</v>
@@ -3473,13 +3449,13 @@
         <v>1290188</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,7 +3470,7 @@
         <v>94679</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>167</v>
@@ -3527,10 +3503,10 @@
         <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3521,13 @@
         <v>3267590</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
         <v>3291</v>
@@ -3560,13 +3536,13 @@
         <v>3373295</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
         <v>6496</v>
@@ -3575,18 +3551,18 @@
         <v>6640885</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A950A4-2D5A-4EE3-888F-F6A7077B77C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920DF220-B9C2-4160-9F53-E6C35D421C90}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3624,7 +3600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3731,13 +3707,13 @@
         <v>105483</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>90</v>
@@ -3746,13 +3722,13 @@
         <v>101108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>201</v>
@@ -3761,13 +3737,13 @@
         <v>206590</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3758,13 @@
         <v>8012</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3797,13 +3773,13 @@
         <v>10797</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -3812,10 +3788,10 @@
         <v>18810</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>193</v>
@@ -3884,13 +3860,13 @@
         <v>113495</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -3899,13 +3875,13 @@
         <v>111905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
@@ -3914,18 +3890,18 @@
         <v>225400</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4021,10 +3997,10 @@
         <v>213</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4015,13 @@
         <v>3117</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4054,10 +4030,10 @@
         <v>9890</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>220</v>
@@ -4090,13 +4066,13 @@
         <v>587704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>550</v>
@@ -4105,13 +4081,13 @@
         <v>583426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>1102</v>
@@ -4120,18 +4096,18 @@
         <v>1171130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4176,10 +4152,10 @@
         <v>230</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4170,13 @@
         <v>126905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -4209,13 +4185,13 @@
         <v>124848</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>228</v>
@@ -4224,13 +4200,13 @@
         <v>251752</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4221,13 @@
         <v>16140</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -4260,13 +4236,13 @@
         <v>33181</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -4275,13 +4251,13 @@
         <v>49321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4272,13 @@
         <v>1011709</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>936</v>
@@ -4311,13 +4287,13 @@
         <v>1027993</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>1867</v>
@@ -4326,18 +4302,18 @@
         <v>2039702</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4349,13 +4325,13 @@
         <v>651070</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>597</v>
@@ -4364,13 +4340,13 @@
         <v>657221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>1190</v>
@@ -4379,13 +4355,13 @@
         <v>1308293</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4376,13 @@
         <v>92404</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4415,13 +4391,13 @@
         <v>93841</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>170</v>
@@ -4430,13 +4406,13 @@
         <v>186245</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4427,13 @@
         <v>14149</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -4466,13 +4442,13 @@
         <v>23078</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -4481,13 +4457,13 @@
         <v>37227</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4478,13 @@
         <v>757623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>703</v>
@@ -4517,13 +4493,13 @@
         <v>774140</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>1392</v>
@@ -4532,18 +4508,18 @@
         <v>1531764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4555,13 +4531,13 @@
         <v>729342</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>777</v>
@@ -4690,10 +4666,10 @@
         <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4684,13 @@
         <v>945835</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>1000</v>
@@ -4723,13 +4699,13 @@
         <v>1049028</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>1909</v>
@@ -4738,13 +4714,13 @@
         <v>1994863</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,10 +4737,10 @@
         <v>2895656</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>302</v>
@@ -4788,7 +4764,7 @@
         <v>5462</v>
       </c>
       <c r="N24" s="7">
-        <v>5850037</v>
+        <v>5850036</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>306</v>
@@ -4797,7 +4773,7 @@
         <v>307</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4788,13 @@
         <v>434507</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H25" s="7">
         <v>435</v>
@@ -4827,13 +4803,13 @@
         <v>469358</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="M25" s="7">
         <v>834</v>
@@ -4842,13 +4818,13 @@
         <v>903866</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4839,13 @@
         <v>86202</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
@@ -4878,13 +4854,13 @@
         <v>122754</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
         <v>193</v>
@@ -4893,13 +4869,13 @@
         <v>208956</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>88</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4890,13 @@
         <v>3416366</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
         <v>3288</v>
@@ -4929,33 +4905,33 @@
         <v>3546492</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
         <v>6489</v>
       </c>
       <c r="N27" s="7">
-        <v>6962859</v>
+        <v>6962858</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4976,7 +4952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5CCF38-C5BC-4AC7-ACE6-676DE6C9765C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80826AC-E441-43A5-912F-42FA308F44DD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4993,7 +4969,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5100,13 +5076,13 @@
         <v>109463</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>108</v>
@@ -5115,13 +5091,13 @@
         <v>106606</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>214</v>
@@ -5130,13 +5106,13 @@
         <v>216069</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5127,13 @@
         <v>6090</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5166,13 +5142,13 @@
         <v>4562</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5181,13 +5157,13 @@
         <v>10652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5178,13 @@
         <v>993</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5217,13 +5193,13 @@
         <v>2191</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -5232,13 +5208,13 @@
         <v>3184</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5229,13 @@
         <v>116546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>115</v>
@@ -5268,13 +5244,13 @@
         <v>113360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -5283,18 +5259,18 @@
         <v>229906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5306,13 +5282,13 @@
         <v>515098</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -5321,13 +5297,13 @@
         <v>516215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>1008</v>
@@ -5336,13 +5312,13 @@
         <v>1031312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5333,13 @@
         <v>29388</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>359</v>
+        <v>87</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>360</v>
+        <v>147</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5372,10 +5348,10 @@
         <v>31170</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>362</v>
+        <v>173</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>363</v>
@@ -5426,10 +5402,10 @@
         <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -5438,13 +5414,13 @@
         <v>23760</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5435,13 @@
         <v>558254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>549</v>
@@ -5474,13 +5450,13 @@
         <v>557376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>1088</v>
@@ -5489,18 +5465,18 @@
         <v>1115630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5512,13 +5488,13 @@
         <v>911835</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H12" s="7">
         <v>868</v>
@@ -5527,13 +5503,13 @@
         <v>928442</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>378</v>
+        <v>199</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M12" s="7">
         <v>1718</v>
@@ -5542,13 +5518,13 @@
         <v>1840276</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5539,13 @@
         <v>92536</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -5578,13 +5554,13 @@
         <v>91547</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -5593,13 +5569,13 @@
         <v>184083</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5590,13 @@
         <v>15210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -5629,13 +5605,13 @@
         <v>18989</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -5644,13 +5620,13 @@
         <v>34199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5641,13 @@
         <v>1019581</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>974</v>
@@ -5680,13 +5656,13 @@
         <v>1038978</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>1923</v>
@@ -5695,18 +5671,18 @@
         <v>2058559</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5718,13 +5694,13 @@
         <v>629777</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>598</v>
@@ -5733,13 +5709,13 @@
         <v>634631</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>1175</v>
@@ -5748,13 +5724,13 @@
         <v>1264409</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5745,13 @@
         <v>100153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>407</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -5784,13 +5760,13 @@
         <v>112857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>50</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -5799,13 +5775,13 @@
         <v>213010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5796,13 @@
         <v>25420</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -5835,13 +5811,13 @@
         <v>34282</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -5850,13 +5826,13 @@
         <v>59702</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5847,13 @@
         <v>755349</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>733</v>
@@ -5886,13 +5862,13 @@
         <v>781770</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>1425</v>
@@ -5901,18 +5877,18 @@
         <v>1537120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5927,10 +5903,10 @@
         <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>789</v>
@@ -5942,10 +5918,10 @@
         <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>1585</v>
@@ -5954,13 +5930,13 @@
         <v>1661545</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5951,13 @@
         <v>108812</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H21" s="7">
         <v>127</v>
@@ -5990,13 +5966,13 @@
         <v>137071</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M21" s="7">
         <v>237</v>
@@ -6005,13 +5981,13 @@
         <v>245883</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>436</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6002,13 @@
         <v>23984</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>173</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -6041,13 +6017,13 @@
         <v>41098</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -6056,13 +6032,13 @@
         <v>65081</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>442</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6053,13 @@
         <v>935402</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>953</v>
@@ -6092,13 +6068,13 @@
         <v>1037108</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>1883</v>
@@ -6107,13 +6083,13 @@
         <v>1972510</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6106,13 @@
         <v>2968778</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H24" s="7">
         <v>2871</v>
@@ -6145,13 +6121,13 @@
         <v>3044833</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M24" s="7">
         <v>5700</v>
@@ -6160,13 +6136,13 @@
         <v>6013611</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6157,13 @@
         <v>336980</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>455</v>
+        <v>240</v>
       </c>
       <c r="H25" s="7">
         <v>355</v>
@@ -6196,13 +6172,13 @@
         <v>377207</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>675</v>
@@ -6211,13 +6187,13 @@
         <v>714186</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6208,13 @@
         <v>79374</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>320</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>98</v>
@@ -6247,13 +6223,13 @@
         <v>106552</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>465</v>
+        <v>89</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -6262,13 +6238,13 @@
         <v>185926</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6259,13 @@
         <v>3385132</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
         <v>3324</v>
@@ -6298,13 +6274,13 @@
         <v>3528592</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
         <v>6547</v>
@@ -6313,18 +6289,18 @@
         <v>6913724</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6345,7 +6321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CB1F9E-F4DD-46DE-8249-FE71992B0718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE83919-A9AD-4CAC-9897-9D3769FA7924}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6362,7 +6338,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6469,13 +6445,13 @@
         <v>100693</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>240</v>
@@ -6484,13 +6460,13 @@
         <v>129261</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>357</v>
@@ -6499,13 +6475,13 @@
         <v>229954</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6496,13 @@
         <v>1289</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6535,13 +6511,13 @@
         <v>1472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>482</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6550,13 +6526,13 @@
         <v>2761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,7 +6553,7 @@
         <v>194</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>485</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6592,7 +6568,7 @@
         <v>194</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6607,7 +6583,7 @@
         <v>194</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6598,13 @@
         <v>101982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>243</v>
@@ -6637,13 +6613,13 @@
         <v>130733</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>361</v>
@@ -6652,18 +6628,18 @@
         <v>232715</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6675,13 +6651,13 @@
         <v>519633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H8" s="7">
         <v>945</v>
@@ -6690,13 +6666,13 @@
         <v>585298</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="M8" s="7">
         <v>1525</v>
@@ -6705,13 +6681,13 @@
         <v>1104930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6702,13 @@
         <v>24442</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>497</v>
+        <v>141</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -6741,13 +6717,13 @@
         <v>28240</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -6756,13 +6732,13 @@
         <v>52682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,13 +6753,13 @@
         <v>3502</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -6792,13 +6768,13 @@
         <v>6429</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6807,13 +6783,13 @@
         <v>9931</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6804,13 @@
         <v>547577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>998</v>
@@ -6843,13 +6819,13 @@
         <v>619967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>1608</v>
@@ -6858,18 +6834,18 @@
         <v>1167543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6881,13 +6857,13 @@
         <v>958944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>509</v>
+        <v>356</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="H12" s="7">
         <v>1395</v>
@@ -6896,13 +6872,13 @@
         <v>976763</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="M12" s="7">
         <v>2280</v>
@@ -6911,13 +6887,13 @@
         <v>1935707</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,13 +6908,13 @@
         <v>52730</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>351</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -6953,7 +6929,7 @@
         <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>509</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -6962,13 +6938,13 @@
         <v>110638</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +6959,13 @@
         <v>27574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -6998,13 +6974,13 @@
         <v>22449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>515</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>524</v>
+        <v>417</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -7013,13 +6989,13 @@
         <v>50023</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7010,13 @@
         <v>1039248</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>1514</v>
@@ -7049,13 +7025,13 @@
         <v>1057121</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>2478</v>
@@ -7064,18 +7040,18 @@
         <v>2096369</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7087,13 +7063,13 @@
         <v>658126</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>942</v>
@@ -7102,13 +7078,13 @@
         <v>792579</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="M16" s="7">
         <v>1547</v>
@@ -7117,13 +7093,13 @@
         <v>1450706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,13 +7114,13 @@
         <v>62468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H17" s="7">
         <v>85</v>
@@ -7153,13 +7129,13 @@
         <v>67177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -7168,13 +7144,13 @@
         <v>129645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7165,13 @@
         <v>8017</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -7204,13 +7180,13 @@
         <v>14615</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>550</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -7219,13 +7195,13 @@
         <v>22633</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,13 +7216,13 @@
         <v>728612</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>1047</v>
@@ -7255,13 +7231,13 @@
         <v>874371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>1722</v>
@@ -7270,18 +7246,18 @@
         <v>1602983</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7293,10 +7269,10 @@
         <v>844580</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>204</v>
@@ -7308,13 +7284,13 @@
         <v>976445</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="M20" s="7">
         <v>2197</v>
@@ -7323,13 +7299,13 @@
         <v>1821024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>548</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,13 +7320,13 @@
         <v>88750</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="H21" s="7">
         <v>201</v>
@@ -7359,13 +7335,13 @@
         <v>133002</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="M21" s="7">
         <v>288</v>
@@ -7374,13 +7350,13 @@
         <v>221752</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7395,13 +7371,13 @@
         <v>31913</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>560</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -7410,13 +7386,13 @@
         <v>39060</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -7425,13 +7401,13 @@
         <v>70974</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,13 +7422,13 @@
         <v>965243</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>1559</v>
@@ -7461,13 +7437,13 @@
         <v>1148507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>2564</v>
@@ -7476,13 +7452,13 @@
         <v>2113750</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,13 +7475,13 @@
         <v>3081976</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="H24" s="7">
         <v>4829</v>
@@ -7514,13 +7490,13 @@
         <v>3460345</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="M24" s="7">
         <v>7906</v>
@@ -7529,13 +7505,13 @@
         <v>6542321</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,13 +7526,13 @@
         <v>229679</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H25" s="7">
         <v>418</v>
@@ -7565,13 +7541,13 @@
         <v>287799</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>214</v>
+        <v>577</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M25" s="7">
         <v>648</v>
@@ -7580,13 +7556,13 @@
         <v>517478</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7601,13 +7577,13 @@
         <v>71007</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>195</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H26" s="7">
         <v>114</v>
@@ -7616,13 +7592,13 @@
         <v>82554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>593</v>
+        <v>246</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -7631,13 +7607,13 @@
         <v>153561</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>335</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,13 +7628,13 @@
         <v>3382662</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
         <v>5361</v>
@@ -7667,13 +7643,13 @@
         <v>3830698</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
         <v>8733</v>
@@ -7682,18 +7658,18 @@
         <v>7213360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{272346D0-08F7-4327-8EF4-438B66D54D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0FD2FA0-DB11-4023-B7A1-EB77A89B12BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41E5F971-9A9A-4DAA-A93C-B4EA0F98CA6A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4EA61430-9EBE-4D12-94B7-90075A431688}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="599">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>77,89%</t>
   </si>
   <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>80,33%</t>
   </si>
   <si>
-    <t>75,05%</t>
+    <t>74,48%</t>
   </si>
   <si>
     <t>84,87%</t>
@@ -107,28 +107,28 @@
     <t>21,17%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -140,1669 +140,1702 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>4,08%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
+    <t>5,09%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
   </si>
   <si>
     <t>80,3%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC244E57-35F7-4762-B79C-BFCC5EF12548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200187A0-05A7-4863-AA37-B636435EFAA0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2461,7 +2494,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -2470,13 +2503,13 @@
         <v>2735</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2524,13 @@
         <v>115358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -2506,13 +2539,13 @@
         <v>112755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -2521,18 +2554,18 @@
         <v>228113</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2544,13 +2577,13 @@
         <v>464053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -2559,13 +2592,13 @@
         <v>444624</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>900</v>
@@ -2574,13 +2607,13 @@
         <v>908677</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2628,13 @@
         <v>99937</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>109</v>
@@ -2610,13 +2643,13 @@
         <v>108260</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>209</v>
@@ -2625,13 +2658,13 @@
         <v>208197</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2679,13 @@
         <v>14663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2661,13 +2694,13 @@
         <v>21772</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2676,13 +2709,13 @@
         <v>36435</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2730,13 @@
         <v>578654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>567</v>
@@ -2712,13 +2745,13 @@
         <v>574656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1145</v>
@@ -2727,18 +2760,18 @@
         <v>1153310</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2750,13 +2783,13 @@
         <v>774927</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>689</v>
@@ -2765,13 +2798,13 @@
         <v>730554</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>1407</v>
@@ -2780,13 +2813,13 @@
         <v>1505481</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2834,13 @@
         <v>160393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -2816,13 +2849,13 @@
         <v>187998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -2831,13 +2864,13 @@
         <v>348391</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2885,13 @@
         <v>22831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -2867,13 +2900,13 @@
         <v>47781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -2882,13 +2915,13 @@
         <v>70612</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2936,13 @@
         <v>958151</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>906</v>
@@ -2918,13 +2951,13 @@
         <v>966333</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1799</v>
@@ -2933,18 +2966,18 @@
         <v>1924484</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2953,16 +2986,16 @@
         <v>491</v>
       </c>
       <c r="D16" s="7">
-        <v>519648</v>
+        <v>519647</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>539</v>
@@ -2971,13 +3004,13 @@
         <v>527007</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>1030</v>
@@ -2986,13 +3019,13 @@
         <v>1046655</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3040,13 @@
         <v>137725</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -3022,13 +3055,13 @@
         <v>126168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>257</v>
@@ -3037,13 +3070,13 @@
         <v>263893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3091,13 @@
         <v>18423</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -3073,13 +3106,13 @@
         <v>29689</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -3088,13 +3121,13 @@
         <v>48112</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,16 +3139,16 @@
         <v>638</v>
       </c>
       <c r="D19" s="7">
-        <v>675796</v>
+        <v>675795</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>695</v>
@@ -3124,13 +3157,13 @@
         <v>682865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1333</v>
@@ -3139,18 +3172,18 @@
         <v>1358660</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3159,16 +3192,16 @@
         <v>752</v>
       </c>
       <c r="D20" s="7">
-        <v>711227</v>
+        <v>711228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>681</v>
@@ -3177,13 +3210,13 @@
         <v>711188</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>1433</v>
@@ -3192,13 +3225,13 @@
         <v>1422416</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,16 +3243,16 @@
         <v>199</v>
       </c>
       <c r="D21" s="7">
-        <v>190732</v>
+        <v>190733</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>229</v>
@@ -3228,13 +3261,13 @@
         <v>236831</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>428</v>
@@ -3243,13 +3276,13 @@
         <v>427564</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3297,13 @@
         <v>37672</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -3279,13 +3312,13 @@
         <v>88667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>125</v>
@@ -3294,13 +3327,13 @@
         <v>126339</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,16 +3345,16 @@
         <v>991</v>
       </c>
       <c r="D23" s="7">
-        <v>939631</v>
+        <v>939632</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>995</v>
@@ -3330,13 +3363,13 @@
         <v>1036686</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>1986</v>
@@ -3345,13 +3378,13 @@
         <v>1976318</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3401,13 @@
         <v>2559705</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>2450</v>
@@ -3383,13 +3416,13 @@
         <v>2506759</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>4956</v>
@@ -3398,13 +3431,13 @@
         <v>5066464</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3452,13 @@
         <v>613206</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>658</v>
@@ -3434,13 +3467,13 @@
         <v>676981</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>1263</v>
@@ -3449,13 +3482,13 @@
         <v>1290188</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3503,13 @@
         <v>94679</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>183</v>
@@ -3485,13 +3518,13 @@
         <v>189555</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>277</v>
@@ -3500,13 +3533,13 @@
         <v>284234</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3554,13 @@
         <v>3267590</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>3291</v>
@@ -3536,13 +3569,13 @@
         <v>3373295</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>6496</v>
@@ -3551,18 +3584,18 @@
         <v>6640885</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3583,7 +3616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920DF220-B9C2-4160-9F53-E6C35D421C90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E439498B-9380-4FD1-99EE-D3AA9E6BEEA6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3600,7 +3633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3707,13 +3740,13 @@
         <v>105483</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>90</v>
@@ -3722,13 +3755,13 @@
         <v>101108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>201</v>
@@ -3737,13 +3770,13 @@
         <v>206590</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3791,13 @@
         <v>8012</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3773,13 +3806,13 @@
         <v>10797</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -3788,13 +3821,13 @@
         <v>18810</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,10 +3845,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3827,10 +3860,10 @@
         <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3842,10 +3875,10 @@
         <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,13 +3893,13 @@
         <v>113495</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -3875,13 +3908,13 @@
         <v>111905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
@@ -3890,18 +3923,18 @@
         <v>225400</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3913,13 +3946,13 @@
         <v>541097</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>482</v>
@@ -3928,13 +3961,13 @@
         <v>509495</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>990</v>
@@ -3943,13 +3976,13 @@
         <v>1050592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3997,13 @@
         <v>43490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -3979,13 +4012,13 @@
         <v>64042</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>100</v>
@@ -3997,10 +4030,10 @@
         <v>213</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4048,13 @@
         <v>3117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4066,13 +4099,13 @@
         <v>587704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>550</v>
@@ -4081,13 +4114,13 @@
         <v>583426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1102</v>
@@ -4096,18 +4129,18 @@
         <v>1171130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4221,13 +4254,13 @@
         <v>16140</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -4236,13 +4269,13 @@
         <v>33181</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -4251,13 +4284,13 @@
         <v>49321</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4305,13 @@
         <v>1011709</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>936</v>
@@ -4287,13 +4320,13 @@
         <v>1027993</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1867</v>
@@ -4302,18 +4335,18 @@
         <v>2039702</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4325,10 +4358,10 @@
         <v>651070</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>252</v>
@@ -4382,7 +4415,7 @@
         <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4391,13 +4424,13 @@
         <v>93841</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>170</v>
@@ -4406,13 +4439,13 @@
         <v>186245</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4460,13 @@
         <v>14149</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -4442,13 +4475,13 @@
         <v>23078</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -4457,13 +4490,13 @@
         <v>37227</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4511,13 @@
         <v>757623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>703</v>
@@ -4493,13 +4526,13 @@
         <v>774140</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1392</v>
@@ -4508,18 +4541,18 @@
         <v>1531764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4531,13 +4564,13 @@
         <v>729342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>777</v>
@@ -4546,13 +4579,13 @@
         <v>816592</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
         <v>1484</v>
@@ -4600,10 +4633,10 @@
         <v>286</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M21" s="7">
         <v>318</v>
@@ -4612,13 +4645,13 @@
         <v>339528</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4666,13 @@
         <v>52797</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -4648,13 +4681,13 @@
         <v>56605</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -4663,13 +4696,13 @@
         <v>109402</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>299</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4717,13 @@
         <v>945835</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>1000</v>
@@ -4699,13 +4732,13 @@
         <v>1049028</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>1909</v>
@@ -4714,13 +4747,13 @@
         <v>1994863</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4770,13 @@
         <v>2895656</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H24" s="7">
         <v>2742</v>
@@ -4752,28 +4785,28 @@
         <v>2954380</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M24" s="7">
         <v>5462</v>
       </c>
       <c r="N24" s="7">
-        <v>5850036</v>
+        <v>5850037</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4821,13 @@
         <v>434507</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H25" s="7">
         <v>435</v>
@@ -4803,13 +4836,13 @@
         <v>469358</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M25" s="7">
         <v>834</v>
@@ -4818,13 +4851,13 @@
         <v>903866</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4872,13 @@
         <v>86202</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>319</v>
+        <v>65</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
@@ -4854,13 +4887,13 @@
         <v>122754</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>321</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>193</v>
@@ -4869,13 +4902,13 @@
         <v>208956</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>324</v>
+        <v>122</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4923,13 @@
         <v>3416366</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>3288</v>
@@ -4905,33 +4938,33 @@
         <v>3546492</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>6489</v>
       </c>
       <c r="N27" s="7">
-        <v>6962858</v>
+        <v>6962859</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4952,7 +4985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80826AC-E441-43A5-912F-42FA308F44DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8A0C3C-21FE-45A6-A89D-C402222DADE5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4969,7 +5002,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5076,13 +5109,13 @@
         <v>109463</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>108</v>
@@ -5091,13 +5124,13 @@
         <v>106606</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>214</v>
@@ -5106,13 +5139,13 @@
         <v>216069</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5160,13 @@
         <v>6090</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5142,13 +5175,13 @@
         <v>4562</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5157,13 +5190,13 @@
         <v>10652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5211,13 @@
         <v>993</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>345</v>
+        <v>219</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5193,13 +5226,13 @@
         <v>2191</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -5208,13 +5241,13 @@
         <v>3184</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5262,13 @@
         <v>116546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>115</v>
@@ -5244,13 +5277,13 @@
         <v>113360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -5259,18 +5292,18 @@
         <v>229906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5282,13 +5315,13 @@
         <v>515098</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -5297,13 +5330,13 @@
         <v>516215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>1008</v>
@@ -5312,13 +5345,13 @@
         <v>1031312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5366,13 @@
         <v>29388</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>87</v>
+        <v>353</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>147</v>
+        <v>354</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5348,13 +5381,13 @@
         <v>31170</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>173</v>
+        <v>356</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -5363,13 +5396,13 @@
         <v>60558</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5417,13 @@
         <v>13768</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5399,13 +5432,13 @@
         <v>9991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -5414,13 +5447,13 @@
         <v>23760</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5468,13 @@
         <v>558254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>549</v>
@@ -5450,13 +5483,13 @@
         <v>557376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1088</v>
@@ -5465,18 +5498,18 @@
         <v>1115630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5488,13 +5521,13 @@
         <v>911835</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="H12" s="7">
         <v>868</v>
@@ -5503,13 +5536,13 @@
         <v>928442</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>199</v>
+        <v>370</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M12" s="7">
         <v>1718</v>
@@ -5518,13 +5551,13 @@
         <v>1840276</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5572,13 @@
         <v>92536</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -5554,13 +5587,13 @@
         <v>91547</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -5569,13 +5602,13 @@
         <v>184083</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5623,13 @@
         <v>15210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -5605,13 +5638,13 @@
         <v>18989</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -5620,13 +5653,13 @@
         <v>34199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5674,13 @@
         <v>1019581</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>974</v>
@@ -5656,13 +5689,13 @@
         <v>1038978</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1923</v>
@@ -5671,18 +5704,18 @@
         <v>2058559</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5694,13 +5727,13 @@
         <v>629777</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>598</v>
@@ -5709,13 +5742,13 @@
         <v>634631</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>1175</v>
@@ -5724,13 +5757,13 @@
         <v>1264409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5778,13 @@
         <v>100153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -5760,13 +5793,13 @@
         <v>112857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -5775,13 +5808,13 @@
         <v>213010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5829,13 @@
         <v>25420</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -5811,13 +5844,13 @@
         <v>34282</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -5826,13 +5859,13 @@
         <v>59702</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>351</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5880,13 @@
         <v>755349</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>733</v>
@@ -5862,13 +5895,13 @@
         <v>781770</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1425</v>
@@ -5877,18 +5910,18 @@
         <v>1537120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5900,13 +5933,13 @@
         <v>802606</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>789</v>
@@ -5918,10 +5951,10 @@
         <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>40</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>1585</v>
@@ -5930,13 +5963,13 @@
         <v>1661545</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5984,13 @@
         <v>108812</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H21" s="7">
         <v>127</v>
@@ -5966,13 +5999,13 @@
         <v>137071</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M21" s="7">
         <v>237</v>
@@ -5981,13 +6014,13 @@
         <v>245883</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +6035,13 @@
         <v>23984</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -6017,13 +6050,13 @@
         <v>41098</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -6035,10 +6068,10 @@
         <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6086,13 @@
         <v>935402</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>953</v>
@@ -6068,13 +6101,13 @@
         <v>1037108</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>1883</v>
@@ -6083,13 +6116,13 @@
         <v>1972510</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,7 +6196,7 @@
         <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>240</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>355</v>
@@ -6172,13 +6205,13 @@
         <v>377207</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>675</v>
@@ -6187,13 +6220,13 @@
         <v>714186</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>265</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>260</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6241,13 @@
         <v>79374</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>269</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="H26" s="7">
         <v>98</v>
@@ -6223,13 +6256,13 @@
         <v>106552</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>119</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>89</v>
+        <v>461</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -6238,13 +6271,13 @@
         <v>185926</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>463</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6292,13 @@
         <v>3385132</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>3324</v>
@@ -6274,13 +6307,13 @@
         <v>3528592</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>6547</v>
@@ -6289,18 +6322,18 @@
         <v>6913724</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6321,7 +6354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE83919-A9AD-4CAC-9897-9D3769FA7924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1646F5C-8C09-4BF9-ADFB-E7D680E35FFB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6338,7 +6371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6445,13 +6478,13 @@
         <v>100693</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H4" s="7">
         <v>240</v>
@@ -6460,13 +6493,13 @@
         <v>129261</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M4" s="7">
         <v>357</v>
@@ -6475,13 +6508,13 @@
         <v>229954</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6529,13 @@
         <v>1289</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6511,13 +6544,13 @@
         <v>1472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>474</v>
+        <v>388</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>478</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6526,13 +6559,13 @@
         <v>2761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>372</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,10 +6583,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>217</v>
+        <v>482</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6565,10 +6598,10 @@
         <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6580,10 +6613,10 @@
         <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6631,13 @@
         <v>101982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>243</v>
@@ -6613,13 +6646,13 @@
         <v>130733</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>361</v>
@@ -6628,18 +6661,18 @@
         <v>232715</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6651,13 +6684,13 @@
         <v>519633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H8" s="7">
         <v>945</v>
@@ -6666,28 +6699,28 @@
         <v>585298</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>1525</v>
       </c>
       <c r="N8" s="7">
-        <v>1104930</v>
+        <v>1104931</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,13 +6735,13 @@
         <v>24442</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>141</v>
+        <v>494</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -6717,13 +6750,13 @@
         <v>28240</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -6732,13 +6765,13 @@
         <v>52682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6786,13 @@
         <v>3502</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>497</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -6768,13 +6801,13 @@
         <v>6429</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6783,13 +6816,13 @@
         <v>9931</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,13 +6837,13 @@
         <v>547577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>998</v>
@@ -6819,33 +6852,33 @@
         <v>619967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1608</v>
       </c>
       <c r="N11" s="7">
-        <v>1167543</v>
+        <v>1167544</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6857,13 +6890,13 @@
         <v>958944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>356</v>
+        <v>507</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H12" s="7">
         <v>1395</v>
@@ -6872,13 +6905,13 @@
         <v>976763</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="M12" s="7">
         <v>2280</v>
@@ -6887,13 +6920,13 @@
         <v>1935707</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,13 +6941,13 @@
         <v>52730</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>351</v>
+        <v>515</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -6923,13 +6956,13 @@
         <v>57909</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>518</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -6938,13 +6971,13 @@
         <v>110638</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,13 +6992,13 @@
         <v>27574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>524</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -6974,13 +7007,13 @@
         <v>22449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -6989,13 +7022,13 @@
         <v>50023</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>517</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,13 +7043,13 @@
         <v>1039248</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>1514</v>
@@ -7025,13 +7058,13 @@
         <v>1057121</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>2478</v>
@@ -7040,18 +7073,18 @@
         <v>2096369</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7063,13 +7096,13 @@
         <v>658126</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>533</v>
       </c>
       <c r="H16" s="7">
         <v>942</v>
@@ -7078,13 +7111,13 @@
         <v>792579</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>1547</v>
@@ -7093,13 +7126,13 @@
         <v>1450706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,13 +7147,13 @@
         <v>62468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="H17" s="7">
         <v>85</v>
@@ -7129,13 +7162,13 @@
         <v>67177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -7144,13 +7177,13 @@
         <v>129645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,13 +7198,13 @@
         <v>8017</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -7180,13 +7213,13 @@
         <v>14615</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>540</v>
+        <v>268</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -7195,13 +7228,13 @@
         <v>22633</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,13 +7249,13 @@
         <v>728612</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>1047</v>
@@ -7231,13 +7264,13 @@
         <v>874371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1722</v>
@@ -7246,18 +7279,18 @@
         <v>1602983</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7269,13 +7302,13 @@
         <v>844580</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>255</v>
+        <v>555</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>557</v>
       </c>
       <c r="H20" s="7">
         <v>1307</v>
@@ -7284,13 +7317,13 @@
         <v>976445</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="M20" s="7">
         <v>2197</v>
@@ -7299,13 +7332,13 @@
         <v>1821024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,13 +7353,13 @@
         <v>88750</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="H21" s="7">
         <v>201</v>
@@ -7335,13 +7368,13 @@
         <v>133002</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="M21" s="7">
         <v>288</v>
@@ -7350,13 +7383,13 @@
         <v>221752</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7371,13 +7404,13 @@
         <v>31913</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>373</v>
+        <v>573</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -7386,13 +7419,13 @@
         <v>39060</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -7401,13 +7434,13 @@
         <v>70974</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>564</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,16 +7452,16 @@
         <v>1005</v>
       </c>
       <c r="D23" s="7">
-        <v>965243</v>
+        <v>965244</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>1559</v>
@@ -7437,13 +7470,13 @@
         <v>1148507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>2564</v>
@@ -7452,13 +7485,13 @@
         <v>2113750</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,13 +7508,13 @@
         <v>3081976</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>568</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>4829</v>
@@ -7490,13 +7523,13 @@
         <v>3460345</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="M24" s="7">
         <v>7906</v>
@@ -7505,13 +7538,13 @@
         <v>6542321</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,13 +7559,13 @@
         <v>229679</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="H25" s="7">
         <v>418</v>
@@ -7541,13 +7574,13 @@
         <v>287799</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="M25" s="7">
         <v>648</v>
@@ -7556,13 +7589,13 @@
         <v>517478</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,13 +7610,13 @@
         <v>71007</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>195</v>
+        <v>595</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="H26" s="7">
         <v>114</v>
@@ -7592,13 +7625,13 @@
         <v>82554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>586</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -7607,13 +7640,13 @@
         <v>153561</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,13 +7661,13 @@
         <v>3382662</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>5361</v>
@@ -7643,13 +7676,13 @@
         <v>3830698</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>8733</v>
@@ -7658,18 +7691,18 @@
         <v>7213360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
